--- a/biology/Zoologie/Arcanumophis_problematicus/Arcanumophis_problematicus.xlsx
+++ b/biology/Zoologie/Arcanumophis_problematicus/Arcanumophis_problematicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcanumophis problematicus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcanumophis problematicus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Puno au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Puno au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Arcanumophis problematicus[2], un mâle adulte, mesure 275 mm dont 51 mm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Arcanumophis problematicus, un mâle adulte, mesure 275 mm dont 51 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est apparentée aux genres Erythrolamprus, Liophis, Lystrophis, Umbrivaga, Waglerophis et Xenodon. 
-De fait, l'auteur, considérant que le genre Liophis accueillait déjà plusieurs espèces différentes tant dans leur morphologie que leur livrée, a préféré y rattacher cette espèce plutôt que de créer un genre spécifique[2]. Toutefois, en 2019, ce choix a été remis en cause avec la création du genre Arcanumophis[3].
+De fait, l'auteur, considérant que le genre Liophis accueillait déjà plusieurs espèces différentes tant dans leur morphologie que leur livrée, a préféré y rattacher cette espèce plutôt que de créer un genre spécifique. Toutefois, en 2019, ce choix a été remis en cause avec la création du genre Arcanumophis.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du grec ancien προβληματικός, problematikos, « problématique », lui a été donné en référence à sa parenté incertaine[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du grec ancien προβληματικός, problematikos, « problématique », lui a été donné en référence à sa parenté incertaine.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Myers, 1986 : An enigmatic new snake from the Peruvian Andes, with notes on the Xenodontini (Colubridae: Xenodontinae). American Museum Novitates, no 2853, p. 1-12 (texte intégral).</t>
         </is>
